--- a/course-website/syllabus/POLS-3230-final-rubric.xlsx
+++ b/course-website/syllabus/POLS-3230-final-rubric.xlsx
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/course-website/syllabus/POLS-3230-final-rubric.xlsx
+++ b/course-website/syllabus/POLS-3230-final-rubric.xlsx
@@ -98,18 +98,9 @@
     <t>It looks good, but with a few minor edits it would look a lot better. Good choices for mapping variables to aesthetics.</t>
   </si>
   <si>
-    <t>The finding itself is interesting and non-obvious to an intelligent audience that hasn't thought about it before.</t>
-  </si>
-  <si>
     <t>A minor tweak to the code (e.g. a different choice of variable) would have made the finding more interesting.</t>
   </si>
   <si>
-    <t>The finding is a minor variation on something we did in class, or it would be obvious/uninteresting to an intelligent audience that hasn't thought about it before.</t>
-  </si>
-  <si>
-    <t>It would take a significant revision to the code (e.g. importing a different dataset, a new analysis pipeline) to make the finding interesting.</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -137,13 +128,22 @@
     <t>The code demonstrates some of the skills we learned in class (data importing, tidying, thoughtful measurement of variables, geospatial data, animation, text-as-data methods).</t>
   </si>
   <si>
-    <t>What I mean by "mastery" is that you're able to take a skill we learned in one context and transfer it to a new task.</t>
-  </si>
-  <si>
     <t>Your choice of dataset, analysis pipeline, and visualization are mostly appropriate, but another choice on one of those dimensions would have been much more effective at answering your research question of interest.</t>
   </si>
   <si>
     <t>The code demonstrates none of the skills we learned in class (data importing, tidying, thoughtful measurement of variables, geospatial data, animation, text-as-data methods).</t>
+  </si>
+  <si>
+    <t>The finding is a minor variation on something we did in class, or it would be unsurprising to an smart person who hasn't thought about it much before.</t>
+  </si>
+  <si>
+    <t>It would take a significant revision to the code (e.g. importing a different dataset, a new analysis pipeline) to make the finding unsurprising.</t>
+  </si>
+  <si>
+    <t>The finding itself is interesting and would be non-obvious to an smart person who hasn't thought about it much before.</t>
+  </si>
+  <si>
+    <t>What I mean by "mastery" is that you're able to take a skill we learned in one context and transfer it to a new task. Not just copying and pasting code.</t>
   </si>
 </sst>
 </file>
@@ -493,9 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -526,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -563,27 +561,27 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -591,19 +589,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -628,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
